--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -977,7 +977,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="29" spans="1:3">

--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-29020" yWindow="240" windowWidth="25600" windowHeight="14980" activeTab="1"/>
+    <workbookView xWindow="-19360" yWindow="240" windowWidth="13880" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>variable</t>
   </si>
@@ -215,6 +215,24 @@
   </si>
   <si>
     <t>step</t>
+  </si>
+  <si>
+    <t>delay_milk_increase</t>
+  </si>
+  <si>
+    <t>delay_labor_saving</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>body_weight</t>
   </si>
 </sst>
 </file>
@@ -278,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
@@ -299,18 +317,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
@@ -645,15 +673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,8 +694,11 @@
       <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -674,8 +708,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -685,8 +722,11 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -696,8 +736,11 @@
       <c r="C4">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -707,8 +750,11 @@
       <c r="C5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -718,8 +764,11 @@
       <c r="C6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -729,8 +778,11 @@
       <c r="C7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -740,8 +792,11 @@
       <c r="C8">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -751,8 +806,11 @@
       <c r="C9">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -762,8 +820,11 @@
       <c r="C10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -773,8 +834,11 @@
       <c r="C11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -784,8 +848,11 @@
       <c r="C12">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -795,8 +862,11 @@
       <c r="C13">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -806,8 +876,11 @@
       <c r="C14">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -817,8 +890,11 @@
       <c r="C15">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -828,8 +904,11 @@
       <c r="C16">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -839,8 +918,11 @@
       <c r="C17">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -850,19 +932,25 @@
       <c r="C18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="B19" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -872,8 +960,11 @@
       <c r="C20">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -883,8 +974,11 @@
       <c r="C21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -894,8 +988,11 @@
       <c r="C22">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -905,60 +1002,92 @@
       <c r="C23">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25">
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B26" s="2">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B27" s="2">
+        <v>0</v>
+      </c>
+      <c r="C27">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B28" s="2">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B29" s="2">
+        <v>0</v>
+      </c>
+      <c r="C29">
         <v>0.05</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -974,15 +1103,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -992,8 +1124,11 @@
       <c r="C1" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1003,8 +1138,11 @@
       <c r="C2" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1014,8 +1152,11 @@
       <c r="C3" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1025,8 +1166,11 @@
       <c r="C4" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1036,8 +1180,11 @@
       <c r="C5" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1047,8 +1194,11 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1058,8 +1208,11 @@
       <c r="C7" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1067,8 +1220,11 @@
       <c r="C8" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1078,8 +1234,11 @@
       <c r="C9" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1089,19 +1248,25 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="2">
-        <v>-9999</v>
-      </c>
-      <c r="C11" s="2">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="B11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1111,8 +1276,11 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1122,8 +1290,11 @@
       <c r="C13" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1133,8 +1304,11 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1144,8 +1318,11 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1155,8 +1332,11 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1166,8 +1346,11 @@
       <c r="C17" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1177,8 +1360,11 @@
       <c r="C18" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1188,8 +1374,11 @@
       <c r="C19" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1199,8 +1388,11 @@
       <c r="C20" s="2">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1210,8 +1402,11 @@
       <c r="C21" s="2">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1221,8 +1416,11 @@
       <c r="C22" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1232,8 +1430,11 @@
       <c r="C23" s="2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1243,8 +1444,11 @@
       <c r="C24" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1254,8 +1458,11 @@
       <c r="C25" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1265,8 +1472,11 @@
       <c r="C26" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1276,8 +1486,11 @@
       <c r="C27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1287,32 +1500,41 @@
       <c r="C28" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B31" s="2">
         <v>0</v>
@@ -1320,64 +1542,111 @@
       <c r="C31" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
+      <c r="B34" s="2">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-      <c r="C33" s="2">
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B36" s="2">
         <v>1</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="2">
-        <v>0</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
+      <c r="D36">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-19360" yWindow="240" windowWidth="13880" windowHeight="18680"/>
+    <workbookView xWindow="20460" yWindow="1200" windowWidth="13880" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="s">
         <v>68</v>
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D6" t="s">
         <v>68</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="D9" t="s">
         <v>68</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1218,7 +1218,7 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
-        <v>10000</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
         <v>68</v>
@@ -1341,10 +1341,10 @@
         <v>43</v>
       </c>
       <c r="B17" s="2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C17" s="2">
-        <v>0.25</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
@@ -1369,10 +1369,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="2">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C19" s="2">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>

--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="1200" windowWidth="13880" windowHeight="18680"/>
+    <workbookView xWindow="20460" yWindow="1220" windowWidth="13880" windowHeight="18680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>variable</t>
   </si>
@@ -233,6 +233,66 @@
   </si>
   <si>
     <t>body_weight</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>Typical rate is 0.5% per 1,000 investment</t>
+  </si>
+  <si>
+    <t>Range of 2 to 5 hours/day per 70 cows</t>
+  </si>
+  <si>
+    <t>Typical is 0.25 - .75 hours</t>
+  </si>
+  <si>
+    <t>Typical rate is $10 - $18 with benefits</t>
+  </si>
+  <si>
+    <t>Typical rate of $12 - $25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical range $13.00 - $20.00 / cwt </t>
+  </si>
+  <si>
+    <t>Typical range of 50 - 90 lbs</t>
+  </si>
+  <si>
+    <t>Typically $0.002 - $0.004/cwt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical range of 100,000 - 400,000 SCC </t>
+  </si>
+  <si>
+    <t>Typical range of -10 to +2%</t>
+  </si>
+  <si>
+    <t>Typical range of $0.8 - $0.15</t>
+  </si>
+  <si>
+    <t>Typical range $20/ton for pelleting, plus any extra transportation to feed mill, etc.</t>
+  </si>
+  <si>
+    <t>Typical range 6-12 lb/day</t>
+  </si>
+  <si>
+    <t>Typical range of $1,300 - $2,200</t>
+  </si>
+  <si>
+    <t>Typical range of $350 - $1,200</t>
+  </si>
+  <si>
+    <t>Typical increase of 0 - 150 kWh</t>
+  </si>
+  <si>
+    <t>Typical range of -$5 to +$5</t>
+  </si>
+  <si>
+    <t>Typical range of -$2 to +$2</t>
+  </si>
+  <si>
+    <t>Typical change has been very small</t>
   </si>
 </sst>
 </file>
@@ -296,7 +356,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
@@ -321,24 +381,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
@@ -673,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -684,7 +765,7 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +778,11 @@
       <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -712,7 +796,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -725,8 +809,11 @@
       <c r="D3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,8 +826,11 @@
       <c r="D4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -753,8 +843,11 @@
       <c r="D5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -767,8 +860,11 @@
       <c r="D6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -781,8 +877,11 @@
       <c r="D7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,8 +894,11 @@
       <c r="D8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -809,8 +911,11 @@
       <c r="D9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -823,8 +928,11 @@
       <c r="D10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -837,8 +945,11 @@
       <c r="D11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,8 +962,11 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -865,8 +979,11 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -880,7 +997,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -894,7 +1011,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -908,7 +1025,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -921,8 +1038,11 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -936,7 +1056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -950,7 +1070,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -964,7 +1084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -978,7 +1098,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -992,7 +1112,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1006,7 +1126,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -1020,7 +1140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +1154,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1048,7 +1168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1062,7 +1182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1076,7 +1196,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1103,10 +1223,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1114,7 +1234,7 @@
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1247,11 @@
       <c r="D1" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
@@ -1142,7 +1265,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1279,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1293,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1184,7 +1307,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1198,7 +1321,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -1224,7 +1347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
@@ -1238,7 +1361,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1252,7 +1375,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
@@ -1266,7 +1389,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -1280,7 +1403,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -1293,8 +1416,11 @@
       <c r="D13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1308,7 +1434,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1321,8 +1447,11 @@
       <c r="D15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1335,8 +1464,11 @@
       <c r="D16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -1349,8 +1481,11 @@
       <c r="D17" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1364,7 +1499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -1377,8 +1512,11 @@
       <c r="D19" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1392,7 +1530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>47</v>
       </c>
@@ -1406,7 +1544,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
         <v>48</v>
       </c>
@@ -1420,7 +1558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>49</v>
       </c>
@@ -1434,7 +1572,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
@@ -1447,8 +1585,11 @@
       <c r="D24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1461,8 +1602,11 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1475,8 +1619,11 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -1489,8 +1636,9 @@
       <c r="D27">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1504,7 +1652,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
@@ -1518,7 +1666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="4" t="s">
         <v>66</v>
       </c>
@@ -1532,7 +1680,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
@@ -1546,7 +1694,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
         <v>56</v>
       </c>

--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="1220" windowWidth="13880" windowHeight="18680" activeTab="1"/>
+    <workbookView xWindow="20460" yWindow="1220" windowWidth="13880" windowHeight="18680"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
   <si>
     <t>variable</t>
   </si>
@@ -293,6 +293,12 @@
   </si>
   <si>
     <t>Typical change has been very small</t>
+  </si>
+  <si>
+    <t>Number of robots or parlor investment cycles</t>
+  </si>
+  <si>
+    <t>General or Accelerated Depreciation System</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1068,6 +1074,9 @@
       </c>
       <c r="D19" t="s">
         <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1225,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1387,6 +1396,9 @@
       </c>
       <c r="D11" t="s">
         <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:5">

--- a/Robot/www/user_input_data_min_step.xlsx
+++ b/Robot/www/user_input_data_min_step.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="1220" windowWidth="13880" windowHeight="18680"/>
+    <workbookView xWindow="20460" yWindow="1220" windowWidth="13880" windowHeight="18680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common_variables" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>variable</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>General or Accelerated Depreciation System</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Inf</t>
   </si>
 </sst>
 </file>
@@ -762,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1195,8 +1198,8 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
+      <c r="B28" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C28">
         <v>0.01</v>
@@ -1234,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1307,7 +1310,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>10000</v>
@@ -1348,7 +1351,9 @@
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
       <c r="C8" s="2">
         <v>500</v>
       </c>
@@ -1605,8 +1610,8 @@
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
+      <c r="B25" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C25" s="2">
         <v>0.25</v>
